--- a/tspi/ciclo-1/logt1/forma-logt1-20105627.xlsx
+++ b/tspi/ciclo-1/logt1/forma-logt1-20105627.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="24">
   <si>
     <t>Name</t>
   </si>
@@ -67,9 +67,6 @@
     <t>Creación del grupo de github y agregar a los integrantes</t>
   </si>
   <si>
-    <t>Tutorial de usar github</t>
-  </si>
-  <si>
     <t>Instalación de Ruby, Ruby on Rails</t>
   </si>
   <si>
@@ -82,7 +79,13 @@
     <t>Tuvimos una reunión de equipo para la asignación de las tareas del ciclo #1.</t>
   </si>
   <si>
-    <t>Participe en el diagrama de use case y escenario de atributo de calidad</t>
+    <t>Participé en el diagrama de caso de uso y escenarios de atributos de calidad</t>
+  </si>
+  <si>
+    <t>Escuché la grabación de la reunión #1.</t>
+  </si>
+  <si>
+    <t>Tutorial de Basico de usar github</t>
   </si>
 </sst>
 </file>
@@ -93,7 +96,7 @@
     <numFmt numFmtId="164" formatCode="mm/dd/yyyy"/>
     <numFmt numFmtId="165" formatCode="hh:mm\ AM/PM"/>
   </numFmts>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -108,6 +111,13 @@
     </font>
     <font>
       <b/>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <u/>
       <sz val="11"/>
       <name val="Times New Roman"/>
       <family val="1"/>
@@ -175,7 +185,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="165" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
@@ -213,6 +223,10 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -514,10 +528,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AMK12"/>
+  <dimension ref="A1:AMK17"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E17" sqref="E17"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G15" sqref="G15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -618,10 +632,10 @@
         <v>0</v>
       </c>
       <c r="E6" s="3">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="H6" s="5" t="s">
-        <v>17</v>
+        <v>23</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
@@ -634,6 +648,9 @@
       <c r="C7" s="2">
         <v>0.19791666666666666</v>
       </c>
+      <c r="D7" s="3">
+        <v>0</v>
+      </c>
       <c r="E7" s="3">
         <v>40</v>
       </c>
@@ -641,28 +658,24 @@
         <v>16</v>
       </c>
     </row>
-    <row r="8" spans="1:8" ht="41.4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
-        <v>41910</v>
+        <v>41903</v>
       </c>
       <c r="B8" s="2">
-        <v>0.66666666666666696</v>
+        <v>0.71527777777777779</v>
       </c>
       <c r="C8" s="2">
-        <v>0.75</v>
+        <v>0.77083333333333337</v>
       </c>
       <c r="D8" s="3">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="E8" s="3">
-        <f t="shared" ref="E8" si="0">((HOUR(C8)-HOUR(B8))*60)+(MINUTE(C8)-MINUTE(B8))-D8</f>
-        <v>90</v>
-      </c>
-      <c r="F8" s="4">
-        <v>6</v>
+        <v>80</v>
       </c>
       <c r="H8" s="5" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
@@ -682,71 +695,108 @@
         <v>60</v>
       </c>
       <c r="H9" s="5" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
-        <v>41903</v>
+        <v>41910</v>
       </c>
       <c r="B10" s="2">
-        <v>0.71527777777777779</v>
+        <v>0.41666666666666669</v>
       </c>
       <c r="C10" s="2">
-        <v>0.77083333333333337</v>
+        <v>0.42708333333333331</v>
       </c>
       <c r="D10" s="3">
         <v>0</v>
       </c>
       <c r="E10" s="3">
-        <v>80</v>
+        <v>15</v>
+      </c>
+      <c r="F10" s="4">
+        <v>1</v>
       </c>
       <c r="H10" s="5" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" ht="27.6" x14ac:dyDescent="0.25">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" ht="41.4" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
-        <v>41912</v>
+        <v>41910</v>
       </c>
       <c r="B11" s="2">
-        <v>0.96875</v>
+        <v>0.66666666666666696</v>
       </c>
       <c r="C11" s="2">
-        <v>0.99305555555555547</v>
+        <v>0.75</v>
       </c>
       <c r="D11" s="3">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="E11" s="3">
-        <v>35</v>
-      </c>
-      <c r="F11" s="4" t="s">
-        <v>20</v>
+        <f t="shared" ref="E11" si="0">((HOUR(C11)-HOUR(B11))*60)+(MINUTE(C11)-MINUTE(B11))-D11</f>
+        <v>90</v>
+      </c>
+      <c r="F11" s="4">
+        <v>6</v>
       </c>
       <c r="H11" s="5" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
     </row>
     <row r="12" spans="1:8" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
-        <v>41913</v>
+        <v>41912</v>
       </c>
       <c r="B12" s="2">
-        <v>0.84375</v>
+        <v>0.96875</v>
       </c>
       <c r="C12" s="2">
-        <v>0.92708333333333337</v>
+        <v>0.99305555555555547</v>
       </c>
       <c r="D12" s="3">
         <v>0</v>
       </c>
       <c r="E12" s="3">
-        <v>120</v>
+        <v>35</v>
+      </c>
+      <c r="F12" s="4" t="s">
+        <v>19</v>
       </c>
       <c r="H12" s="5" t="s">
-        <v>22</v>
-      </c>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" ht="27.6" x14ac:dyDescent="0.25">
+      <c r="A13" s="1">
+        <v>41913</v>
+      </c>
+      <c r="B13" s="2">
+        <v>0.83333333333333337</v>
+      </c>
+      <c r="C13" s="2">
+        <v>0.93055555555555547</v>
+      </c>
+      <c r="D13" s="3">
+        <v>0</v>
+      </c>
+      <c r="E13" s="3">
+        <f>((HOUR(C13)-HOUR(B13))*60)+(MINUTE(C13)-MINUTE(B13))-D13</f>
+        <v>140</v>
+      </c>
+      <c r="F13" s="4">
+        <v>8</v>
+      </c>
+      <c r="H13" s="5" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G15" s="18"/>
+    </row>
+    <row r="17" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H17" s="17"/>
     </row>
   </sheetData>
   <mergeCells count="6">
@@ -758,7 +808,7 @@
     <mergeCell ref="F3:G3"/>
   </mergeCells>
   <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
-  <pageSetup paperSize="0" scale="0" orientation="portrait" usePrinterDefaults="0" useFirstPageNumber="1" horizontalDpi="0" verticalDpi="0" copies="0"/>
+  <pageSetup orientation="portrait" useFirstPageNumber="1" r:id="rId1"/>
   <headerFooter>
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>

--- a/tspi/ciclo-1/logt1/forma-logt1-20105627.xlsx
+++ b/tspi/ciclo-1/logt1/forma-logt1-20105627.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="96" windowWidth="16380" windowHeight="8100" tabRatio="400"/>
+    <workbookView xWindow="0" yWindow="210" windowWidth="16380" windowHeight="7980" tabRatio="400"/>
   </bookViews>
   <sheets>
     <sheet name="LOGT" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="25">
   <si>
     <t>Name</t>
   </si>
@@ -86,6 +86,9 @@
   </si>
   <si>
     <t>Tutorial de Basico de usar github</t>
+  </si>
+  <si>
+    <t>Reunión #2 con el cliente.</t>
   </si>
 </sst>
 </file>
@@ -185,7 +188,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="165" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
@@ -211,6 +214,10 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="165" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -223,10 +230,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -531,66 +535,65 @@
   <dimension ref="A1:AMK17"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G15" sqref="G15"/>
+      <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.6640625" style="1"/>
-    <col min="2" max="3" width="11.6640625" style="2"/>
-    <col min="4" max="4" width="16.33203125" style="3"/>
-    <col min="5" max="5" width="10.6640625" style="3"/>
-    <col min="6" max="6" width="11.77734375" style="4"/>
-    <col min="7" max="7" width="11.6640625" style="4"/>
+    <col min="1" max="1" width="11.7109375" style="1"/>
+    <col min="2" max="3" width="11.7109375" style="2"/>
+    <col min="4" max="4" width="16.28515625" style="3"/>
+    <col min="5" max="5" width="10.7109375" style="3"/>
+    <col min="6" max="7" width="11.7109375" style="4"/>
     <col min="8" max="8" width="46" style="5"/>
-    <col min="9" max="1025" width="11.6640625" style="4"/>
+    <col min="9" max="1025" width="11.7109375" style="4"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="13" t="s">
+      <c r="B1" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="C1" s="13"/>
+      <c r="C1" s="15"/>
       <c r="E1" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="F1" s="14">
+      <c r="F1" s="16">
         <v>41905</v>
       </c>
-      <c r="G1" s="14"/>
+      <c r="G1" s="16"/>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="15" t="s">
+      <c r="B2" s="17" t="s">
         <v>12</v>
       </c>
-      <c r="C2" s="15"/>
+      <c r="C2" s="17"/>
       <c r="E2" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="F2" s="16" t="s">
+      <c r="F2" s="18" t="s">
         <v>13</v>
       </c>
-      <c r="G2" s="16"/>
+      <c r="G2" s="18"/>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="15"/>
-      <c r="C3" s="15"/>
+      <c r="B3" s="17"/>
+      <c r="C3" s="17"/>
       <c r="E3" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="F3" s="16">
+      <c r="F3" s="18">
         <v>1</v>
       </c>
-      <c r="G3" s="16"/>
+      <c r="G3" s="18"/>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="8" t="s">
@@ -638,7 +641,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>41896</v>
       </c>
@@ -721,7 +724,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="11" spans="1:8" ht="41.4" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" ht="60" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>41910</v>
       </c>
@@ -745,7 +748,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="12" spans="1:8" ht="27.6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>41912</v>
       </c>
@@ -768,7 +771,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="13" spans="1:8" ht="27.6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>41913</v>
       </c>
@@ -792,11 +795,37 @@
         <v>21</v>
       </c>
     </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A14" s="1">
+        <v>41921</v>
+      </c>
+      <c r="B14" s="2">
+        <v>0.40277777777777773</v>
+      </c>
+      <c r="C14" s="2">
+        <v>0.4236111111111111</v>
+      </c>
+      <c r="D14" s="3">
+        <v>0</v>
+      </c>
+      <c r="E14" s="3">
+        <v>30</v>
+      </c>
+      <c r="F14" s="4">
+        <v>10</v>
+      </c>
+      <c r="H14" s="5" t="s">
+        <v>24</v>
+      </c>
+    </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="G15" s="18"/>
+      <c r="G15" s="14"/>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="C16" s="19"/>
     </row>
     <row r="17" spans="8:8" x14ac:dyDescent="0.25">
-      <c r="H17" s="17"/>
+      <c r="H17" s="13"/>
     </row>
   </sheetData>
   <mergeCells count="6">
